--- a/teaching/traditional_assets/database/data/poland/poland_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/poland/poland_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.00695</v>
+        <v>0.0556</v>
       </c>
       <c r="E2">
-        <v>0.6759999999999999</v>
+        <v>0.606</v>
       </c>
       <c r="G2">
-        <v>-0.005810220852593735</v>
+        <v>0.0006483346130999814</v>
       </c>
       <c r="H2">
-        <v>-0.009707241910631742</v>
+        <v>-0.003125769670979239</v>
       </c>
       <c r="I2">
-        <v>0.008399429420869511</v>
+        <v>-0.005172188980484766</v>
       </c>
       <c r="J2">
-        <v>0.007936361007968289</v>
+        <v>-0.004868954523785809</v>
       </c>
       <c r="K2">
-        <v>3.267</v>
+        <v>106.141</v>
       </c>
       <c r="L2">
-        <v>0.02097457627118644</v>
+        <v>0.3844406936818162</v>
       </c>
       <c r="M2">
-        <v>15.255</v>
+        <v>7.362</v>
       </c>
       <c r="N2">
-        <v>0.08834976196819293</v>
+        <v>0.01064386568083439</v>
       </c>
       <c r="O2">
-        <v>4.669421487603305</v>
+        <v>0.06936056754694228</v>
       </c>
       <c r="P2">
-        <v>15.254</v>
+        <v>7.362</v>
       </c>
       <c r="Q2">
-        <v>0.0883439704400403</v>
+        <v>0.01064386568083439</v>
       </c>
       <c r="R2">
-        <v>4.669115396388123</v>
+        <v>0.06936056754694228</v>
       </c>
       <c r="S2">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>6.555227794165848e-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>134.518</v>
+        <v>434.529</v>
       </c>
       <c r="V2">
-        <v>0.7790647840339152</v>
+        <v>0.628235304323185</v>
       </c>
       <c r="W2">
-        <v>0.02337789275915543</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="X2">
-        <v>0.04816397097413283</v>
+        <v>0.03289897308598257</v>
       </c>
       <c r="Y2">
-        <v>-0.0247860782149774</v>
+        <v>0.03737129718428771</v>
       </c>
       <c r="Z2">
-        <v>3.804822162755328</v>
+        <v>5.619507032219984</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-0.01917067911235417</v>
       </c>
       <c r="AB2">
-        <v>0.04729134770467482</v>
+        <v>0.03283441791493916</v>
       </c>
       <c r="AC2">
-        <v>-0.04866983374267558</v>
+        <v>-0.05200509702729332</v>
       </c>
       <c r="AD2">
-        <v>21.592</v>
+        <v>28.32</v>
       </c>
       <c r="AE2">
-        <v>5.923524367026825</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>27.51552436702682</v>
+        <v>28.32</v>
       </c>
       <c r="AG2">
-        <v>-107.0024756329732</v>
+        <v>-406.209</v>
       </c>
       <c r="AH2">
-        <v>0.1374528666120952</v>
+        <v>0.03933409816301984</v>
       </c>
       <c r="AI2">
-        <v>0.1305820016426572</v>
+        <v>0.08782893206593373</v>
       </c>
       <c r="AJ2">
-        <v>-1.629557302390318</v>
+        <v>-1.423012923137285</v>
       </c>
       <c r="AK2">
-        <v>-1.404296016410918</v>
+        <v>3.624147960458228</v>
       </c>
       <c r="AL2">
-        <v>0.6869999999999999</v>
+        <v>0.525</v>
       </c>
       <c r="AM2">
-        <v>-1.483</v>
+        <v>-1.7</v>
       </c>
       <c r="AN2">
-        <v>7.689458689458689</v>
+        <v>-23.58034970857619</v>
       </c>
       <c r="AO2">
-        <v>0.6666666666666666</v>
+        <v>-2.72</v>
       </c>
       <c r="AP2">
-        <v>-38.10629474108732</v>
+        <v>338.225645295587</v>
       </c>
       <c r="AQ2">
-        <v>-0.3088334457181389</v>
+        <v>0.8399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mennica Skarbowa S.A. (WSE:MNS)</t>
+          <t>Letus Capital SA (WSE:LET)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,28 +725,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.317</v>
-      </c>
-      <c r="E3">
-        <v>0.6759999999999999</v>
+        <v>0.632</v>
       </c>
       <c r="G3">
-        <v>0.003788461538461539</v>
+        <v>0.3013245033112583</v>
       </c>
       <c r="H3">
-        <v>0.003788461538461539</v>
+        <v>0.3013245033112583</v>
       </c>
       <c r="I3">
-        <v>0.01876923076923077</v>
+        <v>0.2030905077262693</v>
       </c>
       <c r="J3">
-        <v>0.01732544378698225</v>
+        <v>0.2030905077262693</v>
       </c>
       <c r="K3">
-        <v>0.744</v>
+        <v>0.364</v>
       </c>
       <c r="L3">
-        <v>0.01430769230769231</v>
+        <v>0.401766004415011</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -770,73 +767,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.002268041237113402</v>
       </c>
       <c r="W3">
-        <v>0.7823343848580442</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="X3">
-        <v>0.04555725485025502</v>
+        <v>0.03243055543800871</v>
       </c>
       <c r="Y3">
-        <v>0.7367771300077892</v>
+        <v>0.03783971483226156</v>
       </c>
       <c r="Z3">
-        <v>54.67928496319664</v>
+        <v>0.1726700971983991</v>
       </c>
       <c r="AA3">
-        <v>0.9473428779422471</v>
+        <v>0.03506765770916714</v>
       </c>
       <c r="AB3">
-        <v>0.04555725485025502</v>
+        <v>0.03242847035694042</v>
       </c>
       <c r="AC3">
-        <v>0.9017856230919921</v>
+        <v>0.002639187352226728</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-0.04899999999999999</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.001004145317850614</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.006879520197565709</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-0.001264483497200072</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>-0.008779788568356926</v>
       </c>
       <c r="AL3">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.054</v>
+        <v>-0.001</v>
       </c>
       <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>18.07407407407407</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-0.2237442922374429</v>
       </c>
       <c r="AQ3">
-        <v>18.07407407407407</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="4">
@@ -862,34 +856,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0144358747044049</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0109067112324435</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.15</v>
+        <v>103.3</v>
       </c>
       <c r="L4">
-        <v>0.1278586278586279</v>
+        <v>0.5335743801652892</v>
       </c>
       <c r="M4">
-        <v>15.2</v>
+        <v>7.3</v>
       </c>
       <c r="N4">
-        <v>0.1243862520458265</v>
+        <v>0.01297777777777778</v>
       </c>
       <c r="O4">
-        <v>2.471544715447154</v>
+        <v>0.07066795740561471</v>
       </c>
       <c r="P4">
-        <v>15.2</v>
+        <v>7.3</v>
       </c>
       <c r="Q4">
-        <v>0.1243862520458265</v>
+        <v>0.01297777777777778</v>
       </c>
       <c r="R4">
-        <v>2.471544715447154</v>
+        <v>0.07066795740561471</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,67 +892,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>109</v>
+        <v>384.5</v>
       </c>
       <c r="V4">
-        <v>0.8919803600654664</v>
+        <v>0.6835555555555556</v>
       </c>
       <c r="W4">
-        <v>0.04631024096385542</v>
+        <v>0.9061403508771929</v>
       </c>
       <c r="X4">
-        <v>0.04762198975679575</v>
+        <v>0.03296752951823656</v>
       </c>
       <c r="Y4">
-        <v>-0.001311748792940326</v>
+        <v>0.8731728213589564</v>
       </c>
       <c r="Z4">
-        <v>12.00048261323312</v>
+        <v>14.84662576687117</v>
       </c>
       <c r="AA4">
-        <v>0.1308857985124927</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0463718271848758</v>
+        <v>0.0327945539772266</v>
       </c>
       <c r="AC4">
-        <v>0.08451397132761689</v>
+        <v>-0.0327945539772266</v>
       </c>
       <c r="AD4">
-        <v>8.039999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="AE4">
-        <v>3.778172133590622</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>11.81817213359062</v>
+        <v>16.7</v>
       </c>
       <c r="AG4">
-        <v>-97.18182786640938</v>
+        <v>-367.8</v>
       </c>
       <c r="AH4">
-        <v>0.08818335562590836</v>
+        <v>0.02883287292817679</v>
       </c>
       <c r="AI4">
-        <v>0.09393056609535209</v>
+        <v>0.07076271186440677</v>
       </c>
       <c r="AJ4">
-        <v>-3.884449565199381</v>
+        <v>-1.889060092449923</v>
       </c>
       <c r="AK4">
-        <v>-5.778382281645811</v>
+        <v>2.476767676767677</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-1.67</v>
-      </c>
-      <c r="AN4">
-        <v>5.544827586206896</v>
-      </c>
-      <c r="AP4">
-        <v>-67.02195025269613</v>
+        <v>-1.28</v>
       </c>
       <c r="AQ4">
         <v>-0</v>
@@ -972,7 +960,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Letus Capital SA (WSE:LET)</t>
+          <t>Copernicus Securities S.A. (WSE:CRS)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,25 +969,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>2.214</v>
+        <v>0.0551</v>
       </c>
       <c r="G5">
-        <v>-0.1059171597633136</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-0.1059171597633136</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.09349112426035504</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09349112426035504</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.628</v>
+        <v>-3.78</v>
       </c>
       <c r="L5">
-        <v>0.3715976331360947</v>
+        <v>-0.1702702702702703</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1008,7 +996,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1017,79 +1005,70 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.029</v>
+        <v>4.92</v>
       </c>
       <c r="V5">
-        <v>0.003988995873452545</v>
+        <v>4.241379310344827</v>
       </c>
       <c r="W5">
-        <v>0.1253493013972056</v>
+        <v>-0.6156351791530945</v>
       </c>
       <c r="X5">
-        <v>0.04583917233817192</v>
+        <v>0.03341231731523786</v>
       </c>
       <c r="Y5">
-        <v>0.07951012905903368</v>
+        <v>-0.6490474964683324</v>
       </c>
       <c r="Z5">
-        <v>0.3347860538827259</v>
+        <v>-3.299152920196166</v>
       </c>
       <c r="AA5">
-        <v>0.03129952456418384</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.04571775779472462</v>
+        <v>0.03325715316728665</v>
       </c>
       <c r="AC5">
-        <v>-0.01441823323054078</v>
+        <v>-0.03325715316728665</v>
       </c>
       <c r="AD5">
-        <v>0.096</v>
+        <v>0.062</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.096</v>
+        <v>0.062</v>
       </c>
       <c r="AG5">
-        <v>0.067</v>
+        <v>-4.858</v>
       </c>
       <c r="AH5">
-        <v>0.0130328536519142</v>
+        <v>0.05073649754500818</v>
       </c>
       <c r="AI5">
-        <v>0.01819560272934041</v>
+        <v>0.0206528980679547</v>
       </c>
       <c r="AJ5">
-        <v>0.00913179773749489</v>
+        <v>1.313683071930773</v>
       </c>
       <c r="AK5">
-        <v>0.01276920144844673</v>
+        <v>2.532846715328467</v>
       </c>
       <c r="AL5">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001</v>
-      </c>
-      <c r="AN5">
-        <v>0.3018867924528302</v>
-      </c>
-      <c r="AO5">
-        <v>158</v>
-      </c>
-      <c r="AP5">
-        <v>0.2106918238993711</v>
+        <v>-0.234</v>
       </c>
       <c r="AQ5">
-        <v>158</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -1100,7 +1079,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MBF Group S.A. (WSE:MBF)</t>
+          <t>REINO Capital S.A. (WSE:RNC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1108,26 +1087,23 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D6">
-        <v>0.321</v>
-      </c>
       <c r="G6">
-        <v>-0.02513368983957219</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0.02513368983957219</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.05401069518716577</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05401069518716577</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-3.78</v>
+        <v>-0.699</v>
       </c>
       <c r="L6">
-        <v>-2.02139037433155</v>
+        <v>-2.719844357976653</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1151,73 +1127,64 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.0127710843373494</v>
       </c>
       <c r="W6">
-        <v>-0.7026022304832713</v>
+        <v>-0.04691275167785235</v>
       </c>
       <c r="X6">
-        <v>0.04555725485025502</v>
+        <v>0.03444167304894757</v>
       </c>
       <c r="Y6">
-        <v>-0.7481594853335263</v>
+        <v>-0.08135442472679991</v>
       </c>
       <c r="Z6">
-        <v>0.3475836431226766</v>
+        <v>0.06455664405928159</v>
       </c>
       <c r="AA6">
-        <v>0.01877323420074349</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04555725485025502</v>
+        <v>0.03404180001273134</v>
       </c>
       <c r="AC6">
-        <v>-0.02678402064951153</v>
+        <v>-0.03404180001273134</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.588</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.09782608695652173</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.08731031449307235</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>0.09028883329542869</v>
       </c>
       <c r="AL6">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.01</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>50.5</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
+        <v>-0.366</v>
       </c>
       <c r="AQ6">
-        <v>-10.1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -1237,28 +1204,28 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0297</v>
+        <v>0.18</v>
       </c>
       <c r="E7">
-        <v>-0.6659999999999999</v>
+        <v>0.639</v>
       </c>
       <c r="G7">
-        <v>0.0005844155844155843</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.005062647834829851</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.004424986084641359</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.008999999999999999</v>
+        <v>3.74</v>
       </c>
       <c r="L7">
-        <v>0.0002922077922077922</v>
+        <v>0.06642984014209592</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1282,67 +1249,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>13.4</v>
+        <v>42.2</v>
       </c>
       <c r="V7">
-        <v>0.8933333333333333</v>
+        <v>1.209169054441261</v>
       </c>
       <c r="W7">
-        <v>0.0004455445544554455</v>
+        <v>0.2010752688172043</v>
       </c>
       <c r="X7">
-        <v>0.05780518179247104</v>
+        <v>0.03521713263073005</v>
       </c>
       <c r="Y7">
-        <v>-0.0573596372380156</v>
+        <v>0.1658581361864743</v>
       </c>
       <c r="Z7">
-        <v>2.608986109941339</v>
+        <v>4.828473413379073</v>
       </c>
       <c r="AA7">
-        <v>0.01154472723151301</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.05004679285006213</v>
+        <v>0.03414208930315494</v>
       </c>
       <c r="AC7">
-        <v>-0.03850206561854912</v>
+        <v>-0.03414208930315494</v>
       </c>
       <c r="AD7">
-        <v>6.46</v>
+        <v>5.23</v>
       </c>
       <c r="AE7">
-        <v>2.145352233436203</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>8.605352233436204</v>
+        <v>5.23</v>
       </c>
       <c r="AG7">
-        <v>-4.794647766563797</v>
+        <v>-36.97</v>
       </c>
       <c r="AH7">
-        <v>0.364550892879582</v>
+        <v>0.1303264390730127</v>
       </c>
       <c r="AI7">
-        <v>0.3040185531862408</v>
+        <v>0.1771080257365391</v>
       </c>
       <c r="AJ7">
-        <v>-0.4698169800406203</v>
+        <v>17.85990338164251</v>
       </c>
       <c r="AK7">
-        <v>-0.3216728924934948</v>
+        <v>2.917916337805841</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-0.178</v>
-      </c>
-      <c r="AN7">
-        <v>11.04273504273504</v>
-      </c>
-      <c r="AP7">
-        <v>-8.195979088143243</v>
+        <v>-0.302</v>
       </c>
       <c r="AQ7">
         <v>-0</v>
@@ -1356,7 +1317,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Copernicus Securities S.A. (WSE:CRS)</t>
+          <t>INC S.A. (WSE:INC)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1365,106 +1326,121 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0593</v>
+        <v>0.436</v>
+      </c>
+      <c r="E8">
+        <v>0.606</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-0.1459627329192547</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0.2826086956521739</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>-0.06935817805383024</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-0.05483290516297574</v>
       </c>
       <c r="K8">
-        <v>-1.22</v>
+        <v>5.07</v>
       </c>
       <c r="L8">
-        <v>-0.06777777777777777</v>
+        <v>5.248447204968945</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>0.062</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.002767857142857143</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01222879684418146</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>0.062</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.002767857142857143</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.01222879684418146</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>10.6</v>
+        <v>2.34</v>
       </c>
       <c r="V8">
-        <v>11.20507399577167</v>
+        <v>0.1044642857142857</v>
       </c>
       <c r="W8">
-        <v>-0.1523096129837703</v>
+        <v>1.404432132963989</v>
       </c>
       <c r="X8">
-        <v>0.04941639160428127</v>
+        <v>0.03289897308598257</v>
       </c>
       <c r="Y8">
-        <v>-0.2017260045880516</v>
+        <v>1.371533159878007</v>
       </c>
       <c r="Z8">
-        <v>-8.450704225352112</v>
+        <v>0.3496199782844734</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-0.01917067911235417</v>
       </c>
       <c r="AB8">
-        <v>0.0474425807027308</v>
+        <v>0.03283441791493916</v>
       </c>
       <c r="AC8">
-        <v>-0.0474425807027308</v>
+        <v>-0.05200509702729332</v>
       </c>
       <c r="AD8">
-        <v>0.171</v>
+        <v>0.583</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.171</v>
+        <v>0.583</v>
       </c>
       <c r="AG8">
-        <v>-10.429</v>
+        <v>-1.757</v>
       </c>
       <c r="AH8">
-        <v>0.153088630259624</v>
+        <v>0.0253665752947831</v>
       </c>
       <c r="AI8">
-        <v>0.02590516588395698</v>
+        <v>0.04596704249783174</v>
       </c>
       <c r="AJ8">
-        <v>1.099757460719182</v>
+        <v>-0.08511359782977281</v>
       </c>
       <c r="AK8">
-        <v>2.607901975493873</v>
+        <v>-0.1698733442908247</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="AM8">
-        <v>-0.061</v>
+        <v>0.001000000000000001</v>
+      </c>
+      <c r="AN8">
+        <v>2.944444444444444</v>
+      </c>
+      <c r="AO8">
+        <v>-2.791666666666667</v>
+      </c>
+      <c r="AP8">
+        <v>-8.873737373737372</v>
       </c>
       <c r="AQ8">
-        <v>-0</v>
+        <v>-66.99999999999994</v>
       </c>
     </row>
     <row r="9">
@@ -1475,7 +1451,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>REINO Capital S.A. (WSE:RNC)</t>
+          <t>IPO Doradztwo Kapitalowe S.A. (WSE:IOD)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1484,25 +1460,25 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.191</v>
+        <v>-0.226</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-0.6666666666666667</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-0.6666666666666667</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>-0.04878048780487805</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-0.04878048780487805</v>
       </c>
       <c r="K9">
-        <v>-0.048</v>
+        <v>-0.042</v>
       </c>
       <c r="L9">
-        <v>-0.0587515299877601</v>
+        <v>-0.3414634146341464</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1526,64 +1502,73 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.109</v>
+        <v>0.001</v>
       </c>
       <c r="V9">
-        <v>0.007124183006535947</v>
+        <v>0.0002849002849002849</v>
       </c>
       <c r="W9">
-        <v>6.857142857142857</v>
+        <v>-0.1926605504587156</v>
       </c>
       <c r="X9">
-        <v>0.04735730031385185</v>
+        <v>0.03271041320600198</v>
       </c>
       <c r="Y9">
-        <v>6.809785556829005</v>
+        <v>-0.2253709636647176</v>
       </c>
       <c r="Z9">
-        <v>29.17857142857142</v>
+        <v>0.5590909090909091</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>-0.02727272727272727</v>
       </c>
       <c r="AB9">
-        <v>0.04989708678262036</v>
+        <v>0.03369032084849773</v>
       </c>
       <c r="AC9">
-        <v>-0.04989708678262036</v>
+        <v>-0.06096304812122501</v>
       </c>
       <c r="AD9">
-        <v>1.29</v>
+        <v>0.056</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1.29</v>
+        <v>0.056</v>
       </c>
       <c r="AG9">
-        <v>1.181</v>
+        <v>0.055</v>
       </c>
       <c r="AH9">
-        <v>0.07775768535262206</v>
+        <v>0.01570386988222098</v>
       </c>
       <c r="AI9">
-        <v>0.0787065283709579</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="AJ9">
-        <v>0.07165827316303622</v>
+        <v>0.01542776998597475</v>
       </c>
       <c r="AK9">
-        <v>0.0725385418586082</v>
+        <v>0.2301255230125523</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM9">
-        <v>-0.21</v>
+        <v>0.003</v>
+      </c>
+      <c r="AN9">
+        <v>1.365853658536585</v>
+      </c>
+      <c r="AO9">
+        <v>-2</v>
+      </c>
+      <c r="AP9">
+        <v>1.341463414634146</v>
       </c>
       <c r="AQ9">
-        <v>-0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
@@ -1594,7 +1579,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EFIX Dom Maklerski S.A. (WSE:EFX)</t>
+          <t>MBF Group S.A. (WSE:MBF)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1603,25 +1588,25 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.172</v>
+        <v>0.0561</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-0.1964285714285714</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-0.1964285714285714</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-0.1464285714285714</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0.1464285714285714</v>
       </c>
       <c r="K10">
-        <v>-1.07</v>
+        <v>-0.162</v>
       </c>
       <c r="L10">
-        <v>-3.252279635258359</v>
+        <v>-0.1446428571428571</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1645,61 +1630,70 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.01219512195121951</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-0.7697841726618706</v>
+        <v>-0.06206896551724139</v>
       </c>
       <c r="X10">
-        <v>0.0646154786866126</v>
+        <v>0.03241173843241386</v>
       </c>
       <c r="Y10">
-        <v>-0.8343996513484833</v>
+        <v>-0.09448070394965524</v>
       </c>
       <c r="Z10">
-        <v>0.5189274447949528</v>
+        <v>0.4291187739463602</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>-0.0628352490421456</v>
       </c>
       <c r="AB10">
-        <v>0.05136573954957416</v>
+        <v>0.03241173843241386</v>
       </c>
       <c r="AC10">
-        <v>-0.05136573954957416</v>
+        <v>-0.09524698747455947</v>
       </c>
       <c r="AD10">
-        <v>0.366</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.366</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.4716494845360825</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.429073856975381</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.4682230869001298</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.4257075471698113</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AM10">
         <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>-0</v>
+      </c>
+      <c r="AO10">
+        <v>-164</v>
+      </c>
+      <c r="AP10">
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -1719,37 +1713,34 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.647</v>
-      </c>
-      <c r="E11">
-        <v>1.438</v>
+        <v>-0.278</v>
       </c>
       <c r="G11">
-        <v>-0.1328671328671329</v>
+        <v>1.526315789473685</v>
       </c>
       <c r="H11">
-        <v>-0.5447552447552448</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="I11">
-        <v>-0.4734265734265735</v>
+        <v>-4.140350877192983</v>
       </c>
       <c r="J11">
-        <v>-0.3720080808080808</v>
+        <v>-4.140350877192983</v>
       </c>
       <c r="K11">
-        <v>3.52</v>
+        <v>-1.89</v>
       </c>
       <c r="L11">
-        <v>2.461538461538462</v>
+        <v>-6.631578947368421</v>
       </c>
       <c r="M11">
-        <v>0.001</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.0002597402597402597</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>0.0002840909090909091</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1758,82 +1749,79 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.001</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.122</v>
+        <v>0.042</v>
       </c>
       <c r="V11">
-        <v>0.03168831168831169</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="W11">
-        <v>0.4416562107904642</v>
+        <v>-0.1549180327868852</v>
       </c>
       <c r="X11">
-        <v>0.06590847861476233</v>
+        <v>0.04733388259421152</v>
       </c>
       <c r="Y11">
-        <v>0.3757477321757019</v>
+        <v>-0.2022519153810968</v>
       </c>
       <c r="Z11">
-        <v>0.1219408203291549</v>
+        <v>0.01809753619507239</v>
       </c>
       <c r="AA11">
-        <v>-0.04536297054281194</v>
+        <v>-0.07493014986029972</v>
       </c>
       <c r="AB11">
-        <v>0.04769349605218101</v>
+        <v>0.03980251943277803</v>
       </c>
       <c r="AC11">
-        <v>-0.09305646659499295</v>
+        <v>-0.1147326692930778</v>
       </c>
       <c r="AD11">
-        <v>3.67</v>
+        <v>3.85</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>3.67</v>
+        <v>3.85</v>
       </c>
       <c r="AG11">
-        <v>3.548</v>
+        <v>3.808</v>
       </c>
       <c r="AH11">
-        <v>0.488031914893617</v>
+        <v>0.4435483870967742</v>
       </c>
       <c r="AI11">
-        <v>0.2312539382482672</v>
+        <v>0.2610169491525424</v>
       </c>
       <c r="AJ11">
-        <v>0.4795890781292241</v>
+        <v>0.4408427876823339</v>
       </c>
       <c r="AK11">
-        <v>0.2252984505969012</v>
+        <v>0.2589067174326897</v>
       </c>
       <c r="AL11">
-        <v>0.214</v>
+        <v>0.496</v>
       </c>
       <c r="AM11">
-        <v>0.214</v>
+        <v>0.478</v>
       </c>
       <c r="AN11">
-        <v>-4.416365824308063</v>
+        <v>-2.873134328358209</v>
       </c>
       <c r="AO11">
-        <v>-3.163551401869159</v>
+        <v>-2.379032258064516</v>
       </c>
       <c r="AP11">
-        <v>-4.269554753309266</v>
+        <v>-2.841791044776119</v>
       </c>
       <c r="AQ11">
-        <v>-3.163551401869159</v>
+        <v>-2.468619246861925</v>
       </c>
     </row>
     <row r="12">
@@ -1844,7 +1832,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Merit Investments ASI S.A. (WSE:MEI)</t>
+          <t>Hemp &amp; Health S.A. (WSE:HMP)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1853,10 +1841,28 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.623</v>
+        <v>-0.146</v>
+      </c>
+      <c r="E12">
+        <v>-0.129</v>
+      </c>
+      <c r="G12">
+        <v>-0.1940298507462687</v>
+      </c>
+      <c r="H12">
+        <v>-0.1940298507462687</v>
+      </c>
+      <c r="I12">
+        <v>-0.5432835820895522</v>
+      </c>
+      <c r="J12">
+        <v>-0.5432835820895522</v>
       </c>
       <c r="K12">
-        <v>-0.112</v>
+        <v>0.21</v>
+      </c>
+      <c r="L12">
+        <v>0.626865671641791</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1865,7 +1871,7 @@
         <v>-0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P12">
         <v>-0</v>
@@ -1874,37 +1880,37 @@
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>0.226</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>0.05721518987341772</v>
       </c>
       <c r="W12">
-        <v>-0.7225806451612904</v>
+        <v>0.374331550802139</v>
       </c>
       <c r="X12">
-        <v>0.04555725485025502</v>
+        <v>0.03241173843241386</v>
       </c>
       <c r="Y12">
-        <v>-0.7681379000115454</v>
+        <v>0.3419198123697251</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.5971479500891266</v>
       </c>
       <c r="AA12">
-        <v>-0.15</v>
+        <v>-0.3244206773618538</v>
       </c>
       <c r="AB12">
-        <v>0.04555725485025502</v>
+        <v>0.03241173843241386</v>
       </c>
       <c r="AC12">
-        <v>-0.195557254850255</v>
+        <v>-0.3568324157942677</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1916,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>-0.226</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -1925,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>-0.06068743286788399</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>-0.2084870848708487</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1940,7 +1946,7 @@
         <v>-0</v>
       </c>
       <c r="AP12">
-        <v>-0</v>
+        <v>1.337278106508876</v>
       </c>
     </row>
     <row r="13">
@@ -1951,7 +1957,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INC S.A. (WSE:INC)</t>
+          <t>Merit Investments ASI S.A. (WSE:MEI)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1959,247 +1965,92 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D13">
-        <v>0.00695</v>
-      </c>
-      <c r="G13">
-        <v>-0.915151515151515</v>
-      </c>
-      <c r="H13">
-        <v>-0.915151515151515</v>
-      </c>
-      <c r="I13">
-        <v>-1.536363636363636</v>
-      </c>
-      <c r="J13">
-        <v>-1.536363636363636</v>
-      </c>
       <c r="K13">
-        <v>-0.494</v>
-      </c>
-      <c r="L13">
-        <v>-1.496969696969697</v>
+        <v>0.03</v>
       </c>
       <c r="M13">
-        <v>0.054</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.0169811320754717</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>-0.1093117408906883</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>0.054</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.0169811320754717</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>-0.1093117408906883</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>0.3867924528301886</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>-0.1115124153498871</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0.04870595219146992</v>
+        <v>0.03241173843241386</v>
       </c>
       <c r="Y13">
-        <v>-0.160218367541357</v>
+        <v>0.9675882615675861</v>
       </c>
       <c r="Z13">
-        <v>0.09771986970684042</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>-0.1501332543677821</v>
+        <v>-0.4053763440860216</v>
       </c>
       <c r="AB13">
-        <v>0.04714011470661884</v>
+        <v>0.03241173843241386</v>
       </c>
       <c r="AC13">
-        <v>-0.1972733690744009</v>
+        <v>-0.4377880825184354</v>
       </c>
       <c r="AD13">
-        <v>0.469</v>
+        <v>0</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.469</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>-0.761</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>0.1285283639353247</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>0.07689785210690277</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>-0.3145928069450186</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>-0.1562949270897515</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>0.041</v>
+        <v>0.001</v>
       </c>
       <c r="AM13">
-        <v>0.002000000000000002</v>
-      </c>
-      <c r="AN13">
-        <v>-1.281420765027322</v>
+        <v>0.001</v>
       </c>
       <c r="AO13">
-        <v>-12.36585365853658</v>
-      </c>
-      <c r="AP13">
-        <v>2.079234972677596</v>
+        <v>-13</v>
       </c>
       <c r="AQ13">
-        <v>-253.4999999999998</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Rubicon Partners S.A. (WSE:RBC)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>-0.219</v>
-      </c>
-      <c r="G14">
-        <v>-0.9441624365482233</v>
-      </c>
-      <c r="H14">
-        <v>-0.9441624365482233</v>
-      </c>
-      <c r="I14">
-        <v>1.109137055837564</v>
-      </c>
-      <c r="J14">
-        <v>1.109137055837564</v>
-      </c>
-      <c r="K14">
-        <v>-1.06</v>
-      </c>
-      <c r="L14">
-        <v>-2.690355329949238</v>
-      </c>
-      <c r="M14">
-        <v>-0</v>
-      </c>
-      <c r="N14">
-        <v>-0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>-0</v>
-      </c>
-      <c r="Q14">
-        <v>-0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0.023</v>
-      </c>
-      <c r="V14">
-        <v>0.03745928338762215</v>
-      </c>
-      <c r="W14">
-        <v>55.78947368421053</v>
-      </c>
-      <c r="X14">
-        <v>0.08137135537398103</v>
-      </c>
-      <c r="Y14">
-        <v>55.70810232883655</v>
-      </c>
-      <c r="Z14">
-        <v>-4.329670329670326</v>
-      </c>
-      <c r="AA14">
-        <v>-4.802197802197798</v>
-      </c>
-      <c r="AB14">
-        <v>0.05327301816655639</v>
-      </c>
-      <c r="AC14">
-        <v>-4.855470820364354</v>
-      </c>
-      <c r="AD14">
-        <v>1.03</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>1.03</v>
-      </c>
-      <c r="AG14">
-        <v>1.007</v>
-      </c>
-      <c r="AH14">
-        <v>0.6265206812652068</v>
-      </c>
-      <c r="AI14">
-        <v>0.8161648177496038</v>
-      </c>
-      <c r="AJ14">
-        <v>0.6212214682294881</v>
-      </c>
-      <c r="AK14">
-        <v>0.8127522195318806</v>
-      </c>
-      <c r="AL14">
-        <v>0.375</v>
-      </c>
-      <c r="AM14">
-        <v>0.375</v>
-      </c>
-      <c r="AN14">
-        <v>1.852517985611511</v>
-      </c>
-      <c r="AO14">
-        <v>1.165333333333333</v>
-      </c>
-      <c r="AP14">
-        <v>1.811151079136691</v>
-      </c>
-      <c r="AQ14">
-        <v>1.165333333333333</v>
+        <v>-13</v>
       </c>
     </row>
   </sheetData>
